--- a/references/data-description.xlsx
+++ b/references/data-description.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petr/Development/Santander-Competition/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petr/Development/Santander-Competition/references/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="102">
   <si>
     <t>Column Name</t>
   </si>
@@ -317,19 +317,22 @@
     <t>Data Type</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Int</t>
-  </si>
-  <si>
-    <t>Dummy</t>
-  </si>
-  <si>
-    <t>Bool</t>
-  </si>
-  <si>
-    <t>Str</t>
+    <t>ENUM</t>
+  </si>
+  <si>
+    <t>1/0</t>
+  </si>
+  <si>
+    <t>0-1</t>
+  </si>
+  <si>
+    <t>DUMMY</t>
+  </si>
+  <si>
+    <t>ind_empleado</t>
+  </si>
+  <si>
+    <t>Employee index: A active, B ex employed, F filial, N not employee, P pasive</t>
   </si>
 </sst>
 </file>
@@ -716,16 +719,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.5" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.5" style="7"/>
-    <col min="2" max="2" width="99.1640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="144.5" style="7" customWidth="1"/>
     <col min="3" max="16384" width="32.5" style="7"/>
   </cols>
   <sheetData>
@@ -740,15 +743,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -759,70 +759,67 @@
         <v>5</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>99</v>
+      <c r="C5" s="8" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>97</v>
@@ -830,338 +827,356 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>99</v>
+    <row r="15" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="20" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="C21" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="C23" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="C24" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="C25" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+    <row r="27" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B27" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+    <row r="28" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B28" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+    <row r="29" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B29" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+    <row r="30" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B30" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+    <row r="31" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B31" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+    <row r="32" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B32" s="5" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B49" s="5" t="s">
         <v>94</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>